--- a/校园版4.9.4/4.9.4-AI 口语教练测试用例-合并待评审.xlsx
+++ b/校园版4.9.4/4.9.4-AI 口语教练测试用例-合并待评审.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\testcase\校园版4.9.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15657\Desktop\testcase\校园版4.9.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D896F9-3C6C-4A51-9585-80F189A5DCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCBB2FF-5298-4FBD-BE76-1FE91ADBB6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="547">
   <si>
     <t>系统信息</t>
   </si>
@@ -2199,12 +2199,24 @@
     <t>1.弹出切换教练弹窗；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>AI聊天界面，使用答题器不进行录音，未展示学生的音频内容且教练一直处于思考中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI聊天界面，使用答题器不进行录音，学生在AI聊天界面展示异常符号，教练一直处于思考状态</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI聊天界面 左侧栏，抽选功能文案错误</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2271,47 +2283,60 @@
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
-      <color theme="1" tint="0.249977111117893"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2823,12 +2848,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3000,130 +3028,130 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3162,6 +3190,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3192,12 +3226,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3231,31 +3259,31 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3327,9 +3355,31 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3342,6 +3392,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>247650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Control 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E7C67C-CF34-A75F-19A4-1AFB7E11D615}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3605,8 +3714,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:XFC127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3631,10 +3740,10 @@
       <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="122"/>
+      <c r="D1" s="112"/>
       <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
@@ -3644,8 +3753,8 @@
       <c r="G1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="121" t="s">
+      <c r="H1" s="112"/>
+      <c r="I1" s="111" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="123"/>
@@ -3695,13 +3804,13 @@
       <c r="F3" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="114"/>
     </row>
     <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="106"/>
@@ -5821,14 +5930,14 @@
       <c r="K96" s="42"/>
     </row>
     <row r="97" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="113" t="s">
+      <c r="A97" s="115" t="s">
         <v>266</v>
       </c>
-      <c r="B97" s="114"/>
-      <c r="C97" s="115"/>
-      <c r="D97" s="115"/>
-      <c r="E97" s="115"/>
-      <c r="F97" s="116"/>
+      <c r="B97" s="116"/>
+      <c r="C97" s="117"/>
+      <c r="D97" s="117"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="118"/>
       <c r="G97" s="46"/>
       <c r="H97" s="47"/>
       <c r="I97" s="47"/>
@@ -5836,14 +5945,14 @@
       <c r="K97" s="50"/>
     </row>
     <row r="98" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="117" t="s">
+      <c r="A98" s="119" t="s">
         <v>267</v>
       </c>
-      <c r="B98" s="118"/>
-      <c r="C98" s="119"/>
-      <c r="D98" s="119"/>
-      <c r="E98" s="119"/>
-      <c r="F98" s="120"/>
+      <c r="B98" s="120"/>
+      <c r="C98" s="121"/>
+      <c r="D98" s="121"/>
+      <c r="E98" s="121"/>
+      <c r="F98" s="122"/>
       <c r="G98" s="27"/>
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
@@ -5851,14 +5960,14 @@
       <c r="K98" s="42"/>
     </row>
     <row r="99" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="117" t="s">
+      <c r="A99" s="119" t="s">
         <v>268</v>
       </c>
-      <c r="B99" s="118"/>
-      <c r="C99" s="119"/>
-      <c r="D99" s="119"/>
-      <c r="E99" s="119"/>
-      <c r="F99" s="120"/>
+      <c r="B99" s="120"/>
+      <c r="C99" s="121"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="122"/>
       <c r="G99" s="27"/>
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
@@ -5866,14 +5975,14 @@
       <c r="K99" s="42"/>
     </row>
     <row r="100" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="117" t="s">
+      <c r="A100" s="119" t="s">
         <v>269</v>
       </c>
-      <c r="B100" s="118"/>
-      <c r="C100" s="119"/>
-      <c r="D100" s="119"/>
-      <c r="E100" s="119"/>
-      <c r="F100" s="120"/>
+      <c r="B100" s="120"/>
+      <c r="C100" s="121"/>
+      <c r="D100" s="121"/>
+      <c r="E100" s="121"/>
+      <c r="F100" s="122"/>
       <c r="G100" s="27"/>
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
@@ -6235,11 +6344,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A177F3-0065-4112-97C4-02787BFFA8BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A177F3-0065-4112-97C4-02787BFFA8BC}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6252,7 +6362,7 @@
     <col min="6" max="6" width="49.125" style="83" customWidth="1"/>
     <col min="7" max="7" width="40.5" style="83" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="171" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.25" style="83" customWidth="1"/>
     <col min="11" max="11" width="10.25" style="83" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="71" bestFit="1" customWidth="1"/>
@@ -6346,7 +6456,7 @@
       <c r="H4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="167" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="63" t="s">
@@ -6359,7 +6469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="65"/>
       <c r="B5" s="66">
         <v>1</v>
@@ -6377,13 +6487,15 @@
       <c r="G5" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="70"/>
+      <c r="H5" s="66">
+        <v>1</v>
+      </c>
+      <c r="I5" s="166"/>
       <c r="J5" s="70"/>
       <c r="K5" s="70"/>
       <c r="L5" s="65"/>
     </row>
-    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="72"/>
       <c r="B6" s="66">
         <v>2</v>
@@ -6403,13 +6515,15 @@
       <c r="G6" s="75" t="s">
         <v>294</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="70"/>
+      <c r="H6" s="76">
+        <v>1</v>
+      </c>
+      <c r="I6" s="84"/>
       <c r="J6" s="70"/>
       <c r="K6" s="77"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" s="72"/>
       <c r="B7" s="66">
         <v>3</v>
@@ -6429,13 +6543,15 @@
       <c r="G7" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="70"/>
+      <c r="H7" s="76">
+        <v>1</v>
+      </c>
+      <c r="I7" s="73"/>
       <c r="J7" s="70"/>
       <c r="K7" s="77"/>
       <c r="L7" s="78"/>
     </row>
-    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A8" s="72"/>
       <c r="B8" s="66">
         <v>4</v>
@@ -6455,13 +6571,17 @@
       <c r="G8" s="69" t="s">
         <v>301</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="79"/>
+      <c r="H8" s="76">
+        <v>1</v>
+      </c>
+      <c r="I8" s="168">
+        <v>8566</v>
+      </c>
       <c r="J8" s="79"/>
       <c r="K8" s="79"/>
       <c r="L8" s="80"/>
     </row>
-    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" s="72"/>
       <c r="B9" s="66">
         <v>5</v>
@@ -6481,13 +6601,15 @@
       <c r="G9" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="79"/>
+      <c r="H9" s="76">
+        <v>2</v>
+      </c>
+      <c r="I9" s="73"/>
       <c r="J9" s="79"/>
       <c r="K9" s="79"/>
       <c r="L9" s="81"/>
     </row>
-    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A10" s="72"/>
       <c r="B10" s="66">
         <v>6</v>
@@ -6507,13 +6629,15 @@
       <c r="G10" s="69" t="s">
         <v>308</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="79"/>
+      <c r="H10" s="76">
+        <v>1</v>
+      </c>
+      <c r="I10" s="73"/>
       <c r="J10" s="79"/>
       <c r="K10" s="79"/>
       <c r="L10" s="81"/>
     </row>
-    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" s="72"/>
       <c r="B11" s="66">
         <v>7</v>
@@ -6533,13 +6657,17 @@
       <c r="G11" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="79"/>
+      <c r="H11" s="76">
+        <v>2</v>
+      </c>
+      <c r="I11" s="166">
+        <v>8578</v>
+      </c>
       <c r="J11" s="79"/>
       <c r="K11" s="79"/>
       <c r="L11" s="81"/>
     </row>
-    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="72"/>
       <c r="B12" s="66">
         <v>8</v>
@@ -6559,13 +6687,17 @@
       <c r="G12" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="79"/>
+      <c r="H12" s="76">
+        <v>2</v>
+      </c>
+      <c r="I12" s="166">
+        <v>8580</v>
+      </c>
       <c r="J12" s="79"/>
       <c r="K12" s="79"/>
       <c r="L12" s="81"/>
     </row>
-    <row r="13" spans="1:12" s="83" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="83" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="72"/>
       <c r="B13" s="66">
         <v>9</v>
@@ -6585,13 +6717,15 @@
       <c r="G13" s="82" t="s">
         <v>318</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="79"/>
+      <c r="H13" s="76">
+        <v>1</v>
+      </c>
+      <c r="I13" s="73"/>
       <c r="J13" s="79"/>
       <c r="K13" s="79"/>
       <c r="L13" s="81"/>
     </row>
-    <row r="14" spans="1:12" s="83" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="83" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A14" s="72"/>
       <c r="B14" s="66">
         <v>10</v>
@@ -6611,13 +6745,15 @@
       <c r="G14" s="82" t="s">
         <v>321</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="79"/>
+      <c r="H14" s="76">
+        <v>1</v>
+      </c>
+      <c r="I14" s="73"/>
       <c r="J14" s="79"/>
       <c r="K14" s="79"/>
       <c r="L14" s="81"/>
     </row>
-    <row r="15" spans="1:12" s="83" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="83" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A15" s="72"/>
       <c r="B15" s="66">
         <v>11</v>
@@ -6637,13 +6773,15 @@
       <c r="G15" s="82" t="s">
         <v>324</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="76">
+        <v>1</v>
+      </c>
+      <c r="I15" s="73"/>
       <c r="J15" s="79"/>
       <c r="K15" s="79"/>
       <c r="L15" s="81"/>
     </row>
-    <row r="16" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="72"/>
       <c r="B16" s="66">
         <v>12</v>
@@ -6663,13 +6801,15 @@
       <c r="G16" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="79"/>
+      <c r="H16" s="76">
+        <v>1</v>
+      </c>
+      <c r="I16" s="73"/>
       <c r="J16" s="79"/>
       <c r="K16" s="79"/>
       <c r="L16" s="81"/>
     </row>
-    <row r="17" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="72"/>
       <c r="B17" s="66">
         <v>13</v>
@@ -6689,13 +6829,15 @@
       <c r="G17" s="69" t="s">
         <v>330</v>
       </c>
-      <c r="H17" s="76"/>
-      <c r="I17" s="79"/>
+      <c r="H17" s="76">
+        <v>1</v>
+      </c>
+      <c r="I17" s="73"/>
       <c r="J17" s="79"/>
       <c r="K17" s="79"/>
       <c r="L17" s="81"/>
     </row>
-    <row r="18" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" s="72"/>
       <c r="B18" s="66">
         <v>14</v>
@@ -6715,13 +6857,15 @@
       <c r="G18" s="82" t="s">
         <v>333</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="79"/>
+      <c r="H18" s="76">
+        <v>1</v>
+      </c>
+      <c r="I18" s="73"/>
       <c r="J18" s="79"/>
       <c r="K18" s="79"/>
       <c r="L18" s="81"/>
     </row>
-    <row r="19" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="72"/>
       <c r="B19" s="66">
         <v>15</v>
@@ -6741,13 +6885,15 @@
       <c r="G19" s="82" t="s">
         <v>336</v>
       </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="79"/>
+      <c r="H19" s="76">
+        <v>1</v>
+      </c>
+      <c r="I19" s="73"/>
       <c r="J19" s="79"/>
       <c r="K19" s="79"/>
       <c r="L19" s="81"/>
     </row>
-    <row r="20" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A20" s="72"/>
       <c r="B20" s="66">
         <v>16</v>
@@ -6767,13 +6913,15 @@
       <c r="G20" s="82" t="s">
         <v>339</v>
       </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="79"/>
+      <c r="H20" s="76">
+        <v>1</v>
+      </c>
+      <c r="I20" s="73"/>
       <c r="J20" s="79"/>
       <c r="K20" s="79"/>
       <c r="L20" s="81"/>
     </row>
-    <row r="21" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" s="72"/>
       <c r="B21" s="66">
         <v>17</v>
@@ -6793,13 +6941,15 @@
       <c r="G21" s="69" t="s">
         <v>343</v>
       </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="79"/>
+      <c r="H21" s="76">
+        <v>1</v>
+      </c>
+      <c r="I21" s="73"/>
       <c r="J21" s="79"/>
       <c r="K21" s="79"/>
       <c r="L21" s="81"/>
     </row>
-    <row r="22" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="72"/>
       <c r="B22" s="66">
         <v>18</v>
@@ -6819,13 +6969,15 @@
       <c r="G22" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="H22" s="76"/>
-      <c r="I22" s="79"/>
+      <c r="H22" s="76">
+        <v>1</v>
+      </c>
+      <c r="I22" s="73"/>
       <c r="J22" s="79"/>
       <c r="K22" s="79"/>
       <c r="L22" s="81"/>
     </row>
-    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" s="72"/>
       <c r="B23" s="66">
         <v>19</v>
@@ -6845,13 +6997,15 @@
       <c r="G23" s="69" t="s">
         <v>349</v>
       </c>
-      <c r="H23" s="76"/>
-      <c r="I23" s="79"/>
+      <c r="H23" s="76">
+        <v>1</v>
+      </c>
+      <c r="I23" s="73"/>
       <c r="J23" s="79"/>
       <c r="K23" s="79"/>
       <c r="L23" s="81"/>
     </row>
-    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" s="72"/>
       <c r="B24" s="66">
         <v>20</v>
@@ -6871,13 +7025,15 @@
       <c r="G24" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="H24" s="76"/>
-      <c r="I24" s="79"/>
+      <c r="H24" s="76">
+        <v>1</v>
+      </c>
+      <c r="I24" s="73"/>
       <c r="J24" s="79"/>
       <c r="K24" s="79"/>
       <c r="L24" s="81"/>
     </row>
-    <row r="25" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" s="72"/>
       <c r="B25" s="66">
         <v>21</v>
@@ -6897,13 +7053,17 @@
       <c r="G25" s="69" t="s">
         <v>356</v>
       </c>
-      <c r="H25" s="76"/>
-      <c r="I25" s="79"/>
+      <c r="H25" s="76">
+        <v>2</v>
+      </c>
+      <c r="I25" s="166">
+        <v>8587</v>
+      </c>
       <c r="J25" s="79"/>
       <c r="K25" s="79"/>
       <c r="L25" s="81"/>
     </row>
-    <row r="26" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A26" s="72"/>
       <c r="B26" s="66">
         <v>22</v>
@@ -6923,13 +7083,15 @@
       <c r="G26" s="69" t="s">
         <v>359</v>
       </c>
-      <c r="H26" s="76"/>
-      <c r="I26" s="79"/>
+      <c r="H26" s="76">
+        <v>1</v>
+      </c>
+      <c r="I26" s="73"/>
       <c r="J26" s="79"/>
       <c r="K26" s="79"/>
       <c r="L26" s="81"/>
     </row>
-    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A27" s="72"/>
       <c r="B27" s="66">
         <v>23</v>
@@ -6949,13 +7111,15 @@
       <c r="G27" s="69" t="s">
         <v>363</v>
       </c>
-      <c r="H27" s="76"/>
-      <c r="I27" s="79"/>
+      <c r="H27" s="76">
+        <v>1</v>
+      </c>
+      <c r="I27" s="73"/>
       <c r="J27" s="79"/>
       <c r="K27" s="79"/>
       <c r="L27" s="81"/>
     </row>
-    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" s="72"/>
       <c r="B28" s="66">
         <v>24</v>
@@ -6975,13 +7139,15 @@
       <c r="G28" s="82" t="s">
         <v>367</v>
       </c>
-      <c r="H28" s="76"/>
-      <c r="I28" s="79"/>
+      <c r="H28" s="76">
+        <v>1</v>
+      </c>
+      <c r="I28" s="73"/>
       <c r="J28" s="79"/>
       <c r="K28" s="79"/>
       <c r="L28" s="81"/>
     </row>
-    <row r="29" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A29" s="72"/>
       <c r="B29" s="66">
         <v>25</v>
@@ -7001,13 +7167,17 @@
       <c r="G29" s="82" t="s">
         <v>370</v>
       </c>
-      <c r="H29" s="76"/>
-      <c r="I29" s="79"/>
+      <c r="H29" s="76">
+        <v>2</v>
+      </c>
+      <c r="I29" s="166">
+        <v>8594</v>
+      </c>
       <c r="J29" s="79"/>
       <c r="K29" s="79"/>
       <c r="L29" s="81"/>
     </row>
-    <row r="30" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="63" x14ac:dyDescent="0.2">
       <c r="A30" s="72"/>
       <c r="B30" s="66">
         <v>26</v>
@@ -7027,13 +7197,17 @@
       <c r="G30" s="82" t="s">
         <v>370</v>
       </c>
-      <c r="H30" s="76"/>
-      <c r="I30" s="79"/>
+      <c r="H30" s="76">
+        <v>2</v>
+      </c>
+      <c r="I30" s="166">
+        <v>8594</v>
+      </c>
       <c r="J30" s="79"/>
       <c r="K30" s="79"/>
       <c r="L30" s="81"/>
     </row>
-    <row r="31" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A31" s="72"/>
       <c r="B31" s="66">
         <v>27</v>
@@ -7053,13 +7227,17 @@
       <c r="G31" s="82" t="s">
         <v>374</v>
       </c>
-      <c r="H31" s="76"/>
-      <c r="I31" s="79"/>
+      <c r="H31" s="76">
+        <v>2</v>
+      </c>
+      <c r="I31" s="166">
+        <v>8595</v>
+      </c>
       <c r="J31" s="79"/>
       <c r="K31" s="79"/>
       <c r="L31" s="81"/>
     </row>
-    <row r="32" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="63" x14ac:dyDescent="0.2">
       <c r="A32" s="72"/>
       <c r="B32" s="66">
         <v>28</v>
@@ -7079,13 +7257,15 @@
       <c r="G32" s="82" t="s">
         <v>374</v>
       </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="79"/>
+      <c r="H32" s="76">
+        <v>2</v>
+      </c>
+      <c r="I32" s="73"/>
       <c r="J32" s="79"/>
       <c r="K32" s="79"/>
       <c r="L32" s="81"/>
     </row>
-    <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A33" s="72"/>
       <c r="B33" s="66">
         <v>29</v>
@@ -7105,13 +7285,17 @@
       <c r="G33" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="H33" s="76"/>
-      <c r="I33" s="79"/>
+      <c r="H33" s="76">
+        <v>2</v>
+      </c>
+      <c r="I33" s="166">
+        <v>8597</v>
+      </c>
       <c r="J33" s="79"/>
       <c r="K33" s="79"/>
       <c r="L33" s="81"/>
     </row>
-    <row r="34" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" s="72"/>
       <c r="B34" s="66">
         <v>30</v>
@@ -7131,13 +7315,17 @@
       <c r="G34" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="H34" s="76"/>
-      <c r="I34" s="79"/>
+      <c r="H34" s="76">
+        <v>2</v>
+      </c>
+      <c r="I34" s="166">
+        <v>8602</v>
+      </c>
       <c r="J34" s="79"/>
       <c r="K34" s="79"/>
       <c r="L34" s="81"/>
     </row>
-    <row r="35" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A35" s="72"/>
       <c r="B35" s="66">
         <v>31</v>
@@ -7157,13 +7345,17 @@
       <c r="G35" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="H35" s="76"/>
-      <c r="I35" s="79"/>
+      <c r="H35" s="76">
+        <v>2</v>
+      </c>
+      <c r="I35" s="166">
+        <v>8604</v>
+      </c>
       <c r="J35" s="79"/>
       <c r="K35" s="79"/>
       <c r="L35" s="81"/>
     </row>
-    <row r="36" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" s="72"/>
       <c r="B36" s="66">
         <v>32</v>
@@ -7183,13 +7375,15 @@
       <c r="G36" s="75" t="s">
         <v>389</v>
       </c>
-      <c r="H36" s="76"/>
-      <c r="I36" s="79"/>
+      <c r="H36" s="76">
+        <v>1</v>
+      </c>
+      <c r="I36" s="73"/>
       <c r="J36" s="79"/>
       <c r="K36" s="79"/>
       <c r="L36" s="81"/>
     </row>
-    <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" s="72"/>
       <c r="B37" s="66">
         <v>33</v>
@@ -7209,13 +7403,15 @@
       <c r="G37" s="75" t="s">
         <v>392</v>
       </c>
-      <c r="H37" s="76"/>
-      <c r="I37" s="79"/>
+      <c r="H37" s="76">
+        <v>1</v>
+      </c>
+      <c r="I37" s="73"/>
       <c r="J37" s="79"/>
       <c r="K37" s="79"/>
       <c r="L37" s="81"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="72"/>
       <c r="B38" s="66">
         <v>34</v>
@@ -7235,13 +7431,15 @@
       <c r="G38" s="75" t="s">
         <v>395</v>
       </c>
-      <c r="H38" s="76"/>
-      <c r="I38" s="79"/>
+      <c r="H38" s="76">
+        <v>1</v>
+      </c>
+      <c r="I38" s="73"/>
       <c r="J38" s="79"/>
       <c r="K38" s="79"/>
       <c r="L38" s="81"/>
     </row>
-    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" s="72"/>
       <c r="B39" s="66">
         <v>35</v>
@@ -7261,13 +7459,17 @@
       <c r="G39" s="75" t="s">
         <v>398</v>
       </c>
-      <c r="H39" s="76"/>
-      <c r="I39" s="79"/>
+      <c r="H39" s="76">
+        <v>2</v>
+      </c>
+      <c r="I39" s="166">
+        <v>8605</v>
+      </c>
       <c r="J39" s="79"/>
       <c r="K39" s="79"/>
       <c r="L39" s="81"/>
     </row>
-    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" s="72"/>
       <c r="B40" s="66">
         <v>36</v>
@@ -7287,13 +7489,15 @@
       <c r="G40" s="75" t="s">
         <v>401</v>
       </c>
-      <c r="H40" s="76"/>
-      <c r="I40" s="79"/>
+      <c r="H40" s="76">
+        <v>1</v>
+      </c>
+      <c r="I40" s="73"/>
       <c r="J40" s="79"/>
       <c r="K40" s="79"/>
       <c r="L40" s="81"/>
     </row>
-    <row r="41" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A41" s="72"/>
       <c r="B41" s="66">
         <v>37</v>
@@ -7313,13 +7517,15 @@
       <c r="G41" s="75" t="s">
         <v>404</v>
       </c>
-      <c r="H41" s="76"/>
-      <c r="I41" s="79"/>
+      <c r="H41" s="76">
+        <v>1</v>
+      </c>
+      <c r="I41" s="73"/>
       <c r="J41" s="79"/>
       <c r="K41" s="79"/>
       <c r="L41" s="81"/>
     </row>
-    <row r="42" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A42" s="72"/>
       <c r="B42" s="66">
         <v>38</v>
@@ -7339,13 +7545,15 @@
       <c r="G42" s="75" t="s">
         <v>407</v>
       </c>
-      <c r="H42" s="76"/>
-      <c r="I42" s="79"/>
+      <c r="H42" s="76">
+        <v>1</v>
+      </c>
+      <c r="I42" s="73"/>
       <c r="J42" s="79"/>
       <c r="K42" s="79"/>
       <c r="L42" s="81"/>
     </row>
-    <row r="43" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="63" x14ac:dyDescent="0.2">
       <c r="A43" s="72"/>
       <c r="B43" s="66">
         <v>39</v>
@@ -7365,13 +7573,15 @@
       <c r="G43" s="75" t="s">
         <v>410</v>
       </c>
-      <c r="H43" s="76"/>
-      <c r="I43" s="79"/>
+      <c r="H43" s="76">
+        <v>1</v>
+      </c>
+      <c r="I43" s="73"/>
       <c r="J43" s="79"/>
       <c r="K43" s="79"/>
       <c r="L43" s="81"/>
     </row>
-    <row r="44" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A44" s="72"/>
       <c r="B44" s="66">
         <v>40</v>
@@ -7391,13 +7601,15 @@
       <c r="G44" s="75" t="s">
         <v>414</v>
       </c>
-      <c r="H44" s="76"/>
-      <c r="I44" s="79"/>
+      <c r="H44" s="76">
+        <v>1</v>
+      </c>
+      <c r="I44" s="73"/>
       <c r="J44" s="79"/>
       <c r="K44" s="79"/>
       <c r="L44" s="81"/>
     </row>
-    <row r="45" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A45" s="72"/>
       <c r="B45" s="66">
         <v>41</v>
@@ -7417,13 +7629,15 @@
       <c r="G45" s="75" t="s">
         <v>417</v>
       </c>
-      <c r="H45" s="76"/>
-      <c r="I45" s="79"/>
+      <c r="H45" s="76">
+        <v>1</v>
+      </c>
+      <c r="I45" s="73"/>
       <c r="J45" s="79"/>
       <c r="K45" s="79"/>
       <c r="L45" s="81"/>
     </row>
-    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A46" s="72"/>
       <c r="B46" s="66">
         <v>42</v>
@@ -7443,13 +7657,15 @@
       <c r="G46" s="75" t="s">
         <v>420</v>
       </c>
-      <c r="H46" s="76"/>
-      <c r="I46" s="79"/>
+      <c r="H46" s="76">
+        <v>1</v>
+      </c>
+      <c r="I46" s="73"/>
       <c r="J46" s="79"/>
       <c r="K46" s="79"/>
       <c r="L46" s="81"/>
     </row>
-    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A47" s="72"/>
       <c r="B47" s="66">
         <v>43</v>
@@ -7469,13 +7685,15 @@
       <c r="G47" s="75" t="s">
         <v>420</v>
       </c>
-      <c r="H47" s="76"/>
-      <c r="I47" s="79"/>
+      <c r="H47" s="76">
+        <v>1</v>
+      </c>
+      <c r="I47" s="73"/>
       <c r="J47" s="79"/>
       <c r="K47" s="79"/>
       <c r="L47" s="81"/>
     </row>
-    <row r="48" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="63" x14ac:dyDescent="0.2">
       <c r="A48" s="72"/>
       <c r="B48" s="66">
         <v>44</v>
@@ -7495,13 +7713,17 @@
       <c r="G48" s="75" t="s">
         <v>425</v>
       </c>
-      <c r="H48" s="76"/>
-      <c r="I48" s="79"/>
+      <c r="H48" s="76">
+        <v>2</v>
+      </c>
+      <c r="I48" s="166">
+        <v>8606</v>
+      </c>
       <c r="J48" s="79"/>
       <c r="K48" s="79"/>
       <c r="L48" s="81"/>
     </row>
-    <row r="49" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A49" s="72"/>
       <c r="B49" s="66">
         <v>45</v>
@@ -7521,13 +7743,17 @@
       <c r="G49" s="75" t="s">
         <v>428</v>
       </c>
-      <c r="H49" s="76"/>
-      <c r="I49" s="79"/>
+      <c r="H49" s="76">
+        <v>2</v>
+      </c>
+      <c r="I49" s="166">
+        <v>8608</v>
+      </c>
       <c r="J49" s="79"/>
       <c r="K49" s="79"/>
       <c r="L49" s="81"/>
     </row>
-    <row r="50" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A50" s="72"/>
       <c r="B50" s="66">
         <v>46</v>
@@ -7547,13 +7773,15 @@
       <c r="G50" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="H50" s="76"/>
-      <c r="I50" s="79"/>
+      <c r="H50" s="76">
+        <v>1</v>
+      </c>
+      <c r="I50" s="73"/>
       <c r="J50" s="79"/>
       <c r="K50" s="79"/>
       <c r="L50" s="81"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A51" s="72"/>
       <c r="B51" s="66">
         <v>47</v>
@@ -7574,12 +7802,12 @@
         <v>436</v>
       </c>
       <c r="H51" s="76"/>
-      <c r="I51" s="79"/>
+      <c r="I51" s="73"/>
       <c r="J51" s="79"/>
       <c r="K51" s="79"/>
       <c r="L51" s="81"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="72"/>
       <c r="B52" s="66">
         <v>48</v>
@@ -7600,12 +7828,12 @@
         <v>439</v>
       </c>
       <c r="H52" s="76"/>
-      <c r="I52" s="79"/>
+      <c r="I52" s="73"/>
       <c r="J52" s="79"/>
       <c r="K52" s="79"/>
       <c r="L52" s="81"/>
     </row>
-    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A53" s="72"/>
       <c r="B53" s="66">
         <v>49</v>
@@ -7626,12 +7854,12 @@
         <v>443</v>
       </c>
       <c r="H53" s="76"/>
-      <c r="I53" s="79"/>
+      <c r="I53" s="73"/>
       <c r="J53" s="79"/>
       <c r="K53" s="79"/>
       <c r="L53" s="81"/>
     </row>
-    <row r="54" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A54" s="72"/>
       <c r="B54" s="66">
         <v>50</v>
@@ -7652,12 +7880,12 @@
         <v>443</v>
       </c>
       <c r="H54" s="76"/>
-      <c r="I54" s="79"/>
+      <c r="I54" s="73"/>
       <c r="J54" s="79"/>
       <c r="K54" s="79"/>
       <c r="L54" s="81"/>
     </row>
-    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A55" s="72"/>
       <c r="B55" s="66">
         <v>51</v>
@@ -7678,12 +7906,12 @@
         <v>443</v>
       </c>
       <c r="H55" s="76"/>
-      <c r="I55" s="79"/>
+      <c r="I55" s="73"/>
       <c r="J55" s="79"/>
       <c r="K55" s="79"/>
       <c r="L55" s="81"/>
     </row>
-    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A56" s="72"/>
       <c r="B56" s="66">
         <v>52</v>
@@ -7704,12 +7932,12 @@
         <v>443</v>
       </c>
       <c r="H56" s="76"/>
-      <c r="I56" s="79"/>
+      <c r="I56" s="73"/>
       <c r="J56" s="79"/>
       <c r="K56" s="79"/>
       <c r="L56" s="81"/>
     </row>
-    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A57" s="72"/>
       <c r="B57" s="66">
         <v>53</v>
@@ -7730,12 +7958,12 @@
         <v>449</v>
       </c>
       <c r="H57" s="76"/>
-      <c r="I57" s="79"/>
+      <c r="I57" s="73"/>
       <c r="J57" s="79"/>
       <c r="K57" s="79"/>
       <c r="L57" s="81"/>
     </row>
-    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A58" s="72"/>
       <c r="B58" s="66">
         <v>54</v>
@@ -7756,12 +7984,12 @@
         <v>449</v>
       </c>
       <c r="H58" s="76"/>
-      <c r="I58" s="79"/>
+      <c r="I58" s="73"/>
       <c r="J58" s="79"/>
       <c r="K58" s="79"/>
       <c r="L58" s="81"/>
     </row>
-    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A59" s="72"/>
       <c r="B59" s="66">
         <v>55</v>
@@ -7782,12 +8010,12 @@
         <v>453</v>
       </c>
       <c r="H59" s="76"/>
-      <c r="I59" s="79"/>
+      <c r="I59" s="73"/>
       <c r="J59" s="79"/>
       <c r="K59" s="79"/>
       <c r="L59" s="81"/>
     </row>
-    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A60" s="72"/>
       <c r="B60" s="66">
         <v>56</v>
@@ -7808,12 +8036,12 @@
         <v>453</v>
       </c>
       <c r="H60" s="76"/>
-      <c r="I60" s="79"/>
+      <c r="I60" s="73"/>
       <c r="J60" s="79"/>
       <c r="K60" s="79"/>
       <c r="L60" s="81"/>
     </row>
-    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A61" s="72"/>
       <c r="B61" s="66">
         <v>57</v>
@@ -7834,12 +8062,12 @@
         <v>458</v>
       </c>
       <c r="H61" s="76"/>
-      <c r="I61" s="79"/>
+      <c r="I61" s="73"/>
       <c r="J61" s="79"/>
       <c r="K61" s="79"/>
       <c r="L61" s="81"/>
     </row>
-    <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A62" s="72"/>
       <c r="B62" s="66">
         <v>58</v>
@@ -7860,12 +8088,12 @@
         <v>458</v>
       </c>
       <c r="H62" s="76"/>
-      <c r="I62" s="79"/>
+      <c r="I62" s="73"/>
       <c r="J62" s="79"/>
       <c r="K62" s="79"/>
       <c r="L62" s="81"/>
     </row>
-    <row r="63" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A63" s="72"/>
       <c r="B63" s="66">
         <v>59</v>
@@ -7886,12 +8114,12 @@
         <v>458</v>
       </c>
       <c r="H63" s="76"/>
-      <c r="I63" s="79"/>
+      <c r="I63" s="73"/>
       <c r="J63" s="79"/>
       <c r="K63" s="79"/>
       <c r="L63" s="81"/>
     </row>
-    <row r="64" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A64" s="72"/>
       <c r="B64" s="66">
         <v>60</v>
@@ -7912,12 +8140,12 @@
         <v>463</v>
       </c>
       <c r="H64" s="76"/>
-      <c r="I64" s="79"/>
+      <c r="I64" s="73"/>
       <c r="J64" s="79"/>
       <c r="K64" s="79"/>
       <c r="L64" s="81"/>
     </row>
-    <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A65" s="72"/>
       <c r="B65" s="66">
         <v>61</v>
@@ -7938,12 +8166,12 @@
         <v>463</v>
       </c>
       <c r="H65" s="76"/>
-      <c r="I65" s="79"/>
+      <c r="I65" s="73"/>
       <c r="J65" s="79"/>
       <c r="K65" s="79"/>
       <c r="L65" s="81"/>
     </row>
-    <row r="66" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A66" s="72"/>
       <c r="B66" s="66">
         <v>62</v>
@@ -7964,12 +8192,12 @@
         <v>463</v>
       </c>
       <c r="H66" s="76"/>
-      <c r="I66" s="79"/>
+      <c r="I66" s="73"/>
       <c r="J66" s="79"/>
       <c r="K66" s="79"/>
       <c r="L66" s="81"/>
     </row>
-    <row r="67" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A67" s="72"/>
       <c r="B67" s="66">
         <v>63</v>
@@ -7990,12 +8218,12 @@
         <v>468</v>
       </c>
       <c r="H67" s="76"/>
-      <c r="I67" s="79"/>
+      <c r="I67" s="73"/>
       <c r="J67" s="79"/>
       <c r="K67" s="79"/>
       <c r="L67" s="81"/>
     </row>
-    <row r="68" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A68" s="72"/>
       <c r="B68" s="66">
         <v>64</v>
@@ -8016,12 +8244,12 @@
         <v>468</v>
       </c>
       <c r="H68" s="76"/>
-      <c r="I68" s="79"/>
+      <c r="I68" s="73"/>
       <c r="J68" s="79"/>
       <c r="K68" s="79"/>
       <c r="L68" s="81"/>
     </row>
-    <row r="69" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A69" s="72"/>
       <c r="B69" s="66">
         <v>65</v>
@@ -8042,12 +8270,12 @@
         <v>473</v>
       </c>
       <c r="H69" s="76"/>
-      <c r="I69" s="79"/>
+      <c r="I69" s="73"/>
       <c r="J69" s="79"/>
       <c r="K69" s="79"/>
       <c r="L69" s="81"/>
     </row>
-    <row r="70" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A70" s="72"/>
       <c r="B70" s="66">
         <v>66</v>
@@ -8068,12 +8296,12 @@
         <v>473</v>
       </c>
       <c r="H70" s="76"/>
-      <c r="I70" s="79"/>
+      <c r="I70" s="73"/>
       <c r="J70" s="79"/>
       <c r="K70" s="79"/>
       <c r="L70" s="81"/>
     </row>
-    <row r="71" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A71" s="72"/>
       <c r="B71" s="66">
         <v>67</v>
@@ -8094,12 +8322,12 @@
         <v>473</v>
       </c>
       <c r="H71" s="76"/>
-      <c r="I71" s="79"/>
+      <c r="I71" s="73"/>
       <c r="J71" s="79"/>
       <c r="K71" s="79"/>
       <c r="L71" s="81"/>
     </row>
-    <row r="72" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A72" s="72"/>
       <c r="B72" s="66">
         <v>68</v>
@@ -8120,12 +8348,12 @@
         <v>478</v>
       </c>
       <c r="H72" s="76"/>
-      <c r="I72" s="79"/>
+      <c r="I72" s="73"/>
       <c r="J72" s="79"/>
       <c r="K72" s="79"/>
       <c r="L72" s="81"/>
     </row>
-    <row r="73" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A73" s="72"/>
       <c r="B73" s="66">
         <v>69</v>
@@ -8146,12 +8374,12 @@
         <v>478</v>
       </c>
       <c r="H73" s="76"/>
-      <c r="I73" s="79"/>
+      <c r="I73" s="73"/>
       <c r="J73" s="79"/>
       <c r="K73" s="79"/>
       <c r="L73" s="81"/>
     </row>
-    <row r="74" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A74" s="72"/>
       <c r="B74" s="66">
         <v>70</v>
@@ -8172,12 +8400,12 @@
         <v>478</v>
       </c>
       <c r="H74" s="76"/>
-      <c r="I74" s="79"/>
+      <c r="I74" s="73"/>
       <c r="J74" s="79"/>
       <c r="K74" s="79"/>
       <c r="L74" s="81"/>
     </row>
-    <row r="75" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A75" s="72"/>
       <c r="B75" s="66">
         <v>71</v>
@@ -8198,12 +8426,12 @@
         <v>483</v>
       </c>
       <c r="H75" s="76"/>
-      <c r="I75" s="79"/>
+      <c r="I75" s="73"/>
       <c r="J75" s="79"/>
       <c r="K75" s="79"/>
       <c r="L75" s="81"/>
     </row>
-    <row r="76" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A76" s="72"/>
       <c r="B76" s="66">
         <v>72</v>
@@ -8224,12 +8452,12 @@
         <v>483</v>
       </c>
       <c r="H76" s="76"/>
-      <c r="I76" s="79"/>
+      <c r="I76" s="73"/>
       <c r="J76" s="79"/>
       <c r="K76" s="79"/>
       <c r="L76" s="81"/>
     </row>
-    <row r="77" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A77" s="72"/>
       <c r="B77" s="66">
         <v>73</v>
@@ -8250,12 +8478,12 @@
         <v>483</v>
       </c>
       <c r="H77" s="76"/>
-      <c r="I77" s="79"/>
+      <c r="I77" s="73"/>
       <c r="J77" s="79"/>
       <c r="K77" s="79"/>
       <c r="L77" s="81"/>
     </row>
-    <row r="78" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A78" s="72"/>
       <c r="B78" s="66">
         <v>74</v>
@@ -8275,13 +8503,15 @@
       <c r="G78" s="90" t="s">
         <v>488</v>
       </c>
-      <c r="H78" s="76"/>
-      <c r="I78" s="79"/>
+      <c r="H78" s="76">
+        <v>1</v>
+      </c>
+      <c r="I78" s="73"/>
       <c r="J78" s="79"/>
       <c r="K78" s="79"/>
       <c r="L78" s="81"/>
     </row>
-    <row r="79" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A79" s="72"/>
       <c r="B79" s="66">
         <v>75</v>
@@ -8301,13 +8531,15 @@
       <c r="G79" s="90" t="s">
         <v>491</v>
       </c>
-      <c r="H79" s="76"/>
-      <c r="I79" s="79"/>
+      <c r="H79" s="76">
+        <v>1</v>
+      </c>
+      <c r="I79" s="73"/>
       <c r="J79" s="79"/>
       <c r="K79" s="79"/>
       <c r="L79" s="81"/>
     </row>
-    <row r="80" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" s="72"/>
       <c r="B80" s="66">
         <v>76</v>
@@ -8327,13 +8559,15 @@
       <c r="G80" s="90" t="s">
         <v>494</v>
       </c>
-      <c r="H80" s="76"/>
-      <c r="I80" s="79"/>
+      <c r="H80" s="76">
+        <v>1</v>
+      </c>
+      <c r="I80" s="73"/>
       <c r="J80" s="79"/>
       <c r="K80" s="79"/>
       <c r="L80" s="81"/>
     </row>
-    <row r="81" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A81" s="72"/>
       <c r="B81" s="66">
         <v>77</v>
@@ -8354,12 +8588,12 @@
         <v>497</v>
       </c>
       <c r="H81" s="76"/>
-      <c r="I81" s="79"/>
+      <c r="I81" s="73"/>
       <c r="J81" s="79"/>
       <c r="K81" s="79"/>
       <c r="L81" s="81"/>
     </row>
-    <row r="82" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A82" s="72"/>
       <c r="B82" s="66">
         <v>78</v>
@@ -8379,13 +8613,15 @@
       <c r="G82" s="90" t="s">
         <v>500</v>
       </c>
-      <c r="H82" s="76"/>
-      <c r="I82" s="79"/>
+      <c r="H82" s="76">
+        <v>1</v>
+      </c>
+      <c r="I82" s="73"/>
       <c r="J82" s="79"/>
       <c r="K82" s="79"/>
       <c r="L82" s="81"/>
     </row>
-    <row r="83" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A83" s="72"/>
       <c r="B83" s="66">
         <v>79</v>
@@ -8405,13 +8641,15 @@
       <c r="G83" s="90" t="s">
         <v>503</v>
       </c>
-      <c r="H83" s="76"/>
-      <c r="I83" s="79"/>
+      <c r="H83" s="76">
+        <v>1</v>
+      </c>
+      <c r="I83" s="73"/>
       <c r="J83" s="79"/>
       <c r="K83" s="79"/>
       <c r="L83" s="81"/>
     </row>
-    <row r="84" spans="1:12" s="83" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" s="83" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A84" s="72"/>
       <c r="B84" s="66">
         <v>80</v>
@@ -8432,12 +8670,12 @@
         <v>506</v>
       </c>
       <c r="H84" s="76"/>
-      <c r="I84" s="79"/>
+      <c r="I84" s="73"/>
       <c r="J84" s="79"/>
       <c r="K84" s="79"/>
       <c r="L84" s="81"/>
     </row>
-    <row r="85" spans="1:12" s="83" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" s="83" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A85" s="72"/>
       <c r="B85" s="66">
         <v>81</v>
@@ -8457,13 +8695,15 @@
       <c r="G85" s="90" t="s">
         <v>509</v>
       </c>
-      <c r="H85" s="76"/>
-      <c r="I85" s="79"/>
+      <c r="H85" s="76">
+        <v>1</v>
+      </c>
+      <c r="I85" s="73"/>
       <c r="J85" s="79"/>
       <c r="K85" s="79"/>
       <c r="L85" s="81"/>
     </row>
-    <row r="86" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A86" s="72"/>
       <c r="B86" s="66">
         <v>82</v>
@@ -8483,13 +8723,15 @@
       <c r="G86" s="90" t="s">
         <v>514</v>
       </c>
-      <c r="H86" s="76"/>
-      <c r="I86" s="79"/>
+      <c r="H86" s="76">
+        <v>1</v>
+      </c>
+      <c r="I86" s="73"/>
       <c r="J86" s="79"/>
       <c r="K86" s="79"/>
       <c r="L86" s="81"/>
     </row>
-    <row r="87" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A87" s="72"/>
       <c r="B87" s="66">
         <v>83</v>
@@ -8510,12 +8752,12 @@
         <v>518</v>
       </c>
       <c r="H87" s="76"/>
-      <c r="I87" s="79"/>
+      <c r="I87" s="73"/>
       <c r="J87" s="79"/>
       <c r="K87" s="79"/>
       <c r="L87" s="81"/>
     </row>
-    <row r="88" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A88" s="72"/>
       <c r="B88" s="66">
         <v>84</v>
@@ -8536,12 +8778,12 @@
         <v>521</v>
       </c>
       <c r="H88" s="76"/>
-      <c r="I88" s="79"/>
+      <c r="I88" s="73"/>
       <c r="J88" s="79"/>
       <c r="K88" s="79"/>
       <c r="L88" s="81"/>
     </row>
-    <row r="89" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A89" s="72"/>
       <c r="B89" s="66">
         <v>85</v>
@@ -8561,13 +8803,15 @@
       <c r="G89" s="90" t="s">
         <v>524</v>
       </c>
-      <c r="H89" s="76"/>
-      <c r="I89" s="79"/>
+      <c r="H89" s="76">
+        <v>1</v>
+      </c>
+      <c r="I89" s="73"/>
       <c r="J89" s="79"/>
       <c r="K89" s="79"/>
       <c r="L89" s="81"/>
     </row>
-    <row r="90" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A90" s="72"/>
       <c r="B90" s="66">
         <v>86</v>
@@ -8587,13 +8831,15 @@
       <c r="G90" s="90" t="s">
         <v>528</v>
       </c>
-      <c r="H90" s="76"/>
-      <c r="I90" s="79"/>
+      <c r="H90" s="76">
+        <v>1</v>
+      </c>
+      <c r="I90" s="73"/>
       <c r="J90" s="79"/>
       <c r="K90" s="79"/>
       <c r="L90" s="81"/>
     </row>
-    <row r="91" spans="1:12" s="83" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" s="83" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A91" s="72"/>
       <c r="B91" s="66">
         <v>87</v>
@@ -8613,13 +8859,15 @@
       <c r="G91" s="90" t="s">
         <v>531</v>
       </c>
-      <c r="H91" s="76"/>
-      <c r="I91" s="79"/>
+      <c r="H91" s="76">
+        <v>1</v>
+      </c>
+      <c r="I91" s="73"/>
       <c r="J91" s="79"/>
       <c r="K91" s="79"/>
       <c r="L91" s="81"/>
     </row>
-    <row r="92" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A92" s="72"/>
       <c r="B92" s="66">
         <v>88</v>
@@ -8639,13 +8887,15 @@
       <c r="G92" s="90" t="s">
         <v>535</v>
       </c>
-      <c r="H92" s="76"/>
-      <c r="I92" s="79"/>
+      <c r="H92" s="76">
+        <v>1</v>
+      </c>
+      <c r="I92" s="73"/>
       <c r="J92" s="79"/>
       <c r="K92" s="79"/>
       <c r="L92" s="81"/>
     </row>
-    <row r="93" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A93" s="72"/>
       <c r="B93" s="66">
         <v>89</v>
@@ -8665,13 +8915,15 @@
       <c r="G93" s="90" t="s">
         <v>538</v>
       </c>
-      <c r="H93" s="76"/>
-      <c r="I93" s="79"/>
+      <c r="H93" s="76">
+        <v>1</v>
+      </c>
+      <c r="I93" s="73"/>
       <c r="J93" s="79"/>
       <c r="K93" s="79"/>
       <c r="L93" s="81"/>
     </row>
-    <row r="94" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A94" s="72"/>
       <c r="B94" s="66"/>
       <c r="C94" s="67"/>
@@ -8680,12 +8932,12 @@
       <c r="F94" s="88"/>
       <c r="G94" s="90"/>
       <c r="H94" s="76"/>
-      <c r="I94" s="79"/>
+      <c r="I94" s="73"/>
       <c r="J94" s="79"/>
       <c r="K94" s="79"/>
       <c r="L94" s="81"/>
     </row>
-    <row r="95" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A95" s="72"/>
       <c r="B95" s="66"/>
       <c r="C95" s="67"/>
@@ -8694,12 +8946,12 @@
       <c r="F95" s="88"/>
       <c r="G95" s="90"/>
       <c r="H95" s="76"/>
-      <c r="I95" s="79"/>
+      <c r="I95" s="73"/>
       <c r="J95" s="79"/>
       <c r="K95" s="79"/>
       <c r="L95" s="81"/>
     </row>
-    <row r="96" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A96" s="72"/>
       <c r="B96" s="66"/>
       <c r="C96" s="67"/>
@@ -8708,12 +8960,12 @@
       <c r="F96" s="88"/>
       <c r="G96" s="90"/>
       <c r="H96" s="76"/>
-      <c r="I96" s="79"/>
+      <c r="I96" s="73"/>
       <c r="J96" s="79"/>
       <c r="K96" s="79"/>
       <c r="L96" s="81"/>
     </row>
-    <row r="97" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A97" s="72"/>
       <c r="B97" s="66"/>
       <c r="C97" s="67"/>
@@ -8722,12 +8974,12 @@
       <c r="F97" s="88"/>
       <c r="G97" s="90"/>
       <c r="H97" s="76"/>
-      <c r="I97" s="79"/>
+      <c r="I97" s="73"/>
       <c r="J97" s="79"/>
       <c r="K97" s="79"/>
       <c r="L97" s="81"/>
     </row>
-    <row r="98" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A98" s="72"/>
       <c r="B98" s="66"/>
       <c r="C98" s="67"/>
@@ -8736,12 +8988,12 @@
       <c r="F98" s="88"/>
       <c r="G98" s="90"/>
       <c r="H98" s="76"/>
-      <c r="I98" s="79"/>
+      <c r="I98" s="73"/>
       <c r="J98" s="79"/>
       <c r="K98" s="79"/>
       <c r="L98" s="81"/>
     </row>
-    <row r="99" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" s="72"/>
       <c r="B99" s="66"/>
       <c r="C99" s="67"/>
@@ -8750,12 +9002,12 @@
       <c r="F99" s="88"/>
       <c r="G99" s="90"/>
       <c r="H99" s="76"/>
-      <c r="I99" s="79"/>
+      <c r="I99" s="73"/>
       <c r="J99" s="79"/>
       <c r="K99" s="79"/>
       <c r="L99" s="81"/>
     </row>
-    <row r="100" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A100" s="72"/>
       <c r="B100" s="66"/>
       <c r="C100" s="67"/>
@@ -8764,12 +9016,12 @@
       <c r="F100" s="88"/>
       <c r="G100" s="90"/>
       <c r="H100" s="76"/>
-      <c r="I100" s="79"/>
+      <c r="I100" s="73"/>
       <c r="J100" s="79"/>
       <c r="K100" s="79"/>
       <c r="L100" s="81"/>
     </row>
-    <row r="101" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A101" s="72"/>
       <c r="B101" s="66"/>
       <c r="C101" s="67"/>
@@ -8778,12 +9030,12 @@
       <c r="F101" s="88"/>
       <c r="G101" s="90"/>
       <c r="H101" s="76"/>
-      <c r="I101" s="79"/>
+      <c r="I101" s="73"/>
       <c r="J101" s="79"/>
       <c r="K101" s="79"/>
       <c r="L101" s="81"/>
     </row>
-    <row r="102" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A102" s="72"/>
       <c r="B102" s="66"/>
       <c r="C102" s="67"/>
@@ -8792,12 +9044,12 @@
       <c r="F102" s="88"/>
       <c r="G102" s="90"/>
       <c r="H102" s="76"/>
-      <c r="I102" s="79"/>
+      <c r="I102" s="73"/>
       <c r="J102" s="79"/>
       <c r="K102" s="79"/>
       <c r="L102" s="81"/>
     </row>
-    <row r="103" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A103" s="72"/>
       <c r="B103" s="66"/>
       <c r="C103" s="67"/>
@@ -8806,12 +9058,12 @@
       <c r="F103" s="88"/>
       <c r="G103" s="90"/>
       <c r="H103" s="76"/>
-      <c r="I103" s="79"/>
+      <c r="I103" s="73"/>
       <c r="J103" s="79"/>
       <c r="K103" s="79"/>
       <c r="L103" s="81"/>
     </row>
-    <row r="104" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A104" s="72"/>
       <c r="B104" s="66"/>
       <c r="C104" s="67"/>
@@ -8820,12 +9072,12 @@
       <c r="F104" s="88"/>
       <c r="G104" s="90"/>
       <c r="H104" s="76"/>
-      <c r="I104" s="79"/>
+      <c r="I104" s="73"/>
       <c r="J104" s="79"/>
       <c r="K104" s="79"/>
       <c r="L104" s="81"/>
     </row>
-    <row r="105" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A105" s="72"/>
       <c r="B105" s="66"/>
       <c r="C105" s="67"/>
@@ -8834,12 +9086,12 @@
       <c r="F105" s="88"/>
       <c r="G105" s="90"/>
       <c r="H105" s="76"/>
-      <c r="I105" s="79"/>
+      <c r="I105" s="73"/>
       <c r="J105" s="79"/>
       <c r="K105" s="79"/>
       <c r="L105" s="81"/>
     </row>
-    <row r="106" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A106" s="72"/>
       <c r="B106" s="66"/>
       <c r="C106" s="67"/>
@@ -8848,12 +9100,12 @@
       <c r="F106" s="88"/>
       <c r="G106" s="90"/>
       <c r="H106" s="76"/>
-      <c r="I106" s="79"/>
+      <c r="I106" s="73"/>
       <c r="J106" s="79"/>
       <c r="K106" s="79"/>
       <c r="L106" s="81"/>
     </row>
-    <row r="107" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A107" s="72"/>
       <c r="B107" s="66"/>
       <c r="C107" s="67"/>
@@ -8862,12 +9114,12 @@
       <c r="F107" s="88"/>
       <c r="G107" s="90"/>
       <c r="H107" s="76"/>
-      <c r="I107" s="79"/>
+      <c r="I107" s="73"/>
       <c r="J107" s="79"/>
       <c r="K107" s="79"/>
       <c r="L107" s="81"/>
     </row>
-    <row r="108" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A108" s="72"/>
       <c r="B108" s="66"/>
       <c r="C108" s="67"/>
@@ -8876,12 +9128,12 @@
       <c r="F108" s="88"/>
       <c r="G108" s="90"/>
       <c r="H108" s="76"/>
-      <c r="I108" s="79"/>
+      <c r="I108" s="73"/>
       <c r="J108" s="79"/>
       <c r="K108" s="79"/>
       <c r="L108" s="81"/>
     </row>
-    <row r="109" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A109" s="72"/>
       <c r="B109" s="66"/>
       <c r="C109" s="67"/>
@@ -8890,12 +9142,12 @@
       <c r="F109" s="88"/>
       <c r="G109" s="90"/>
       <c r="H109" s="76"/>
-      <c r="I109" s="79"/>
+      <c r="I109" s="73"/>
       <c r="J109" s="79"/>
       <c r="K109" s="79"/>
       <c r="L109" s="81"/>
     </row>
-    <row r="110" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A110" s="72"/>
       <c r="B110" s="66"/>
       <c r="C110" s="67"/>
@@ -8904,12 +9156,12 @@
       <c r="F110" s="88"/>
       <c r="G110" s="90"/>
       <c r="H110" s="76"/>
-      <c r="I110" s="79"/>
+      <c r="I110" s="73"/>
       <c r="J110" s="79"/>
       <c r="K110" s="79"/>
       <c r="L110" s="81"/>
     </row>
-    <row r="111" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A111" s="72"/>
       <c r="B111" s="66"/>
       <c r="C111" s="67"/>
@@ -8918,12 +9170,12 @@
       <c r="F111" s="88"/>
       <c r="G111" s="90"/>
       <c r="H111" s="76"/>
-      <c r="I111" s="79"/>
+      <c r="I111" s="73"/>
       <c r="J111" s="79"/>
       <c r="K111" s="79"/>
       <c r="L111" s="81"/>
     </row>
-    <row r="112" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A112" s="72"/>
       <c r="B112" s="66"/>
       <c r="C112" s="67"/>
@@ -8932,12 +9184,12 @@
       <c r="F112" s="88"/>
       <c r="G112" s="90"/>
       <c r="H112" s="76"/>
-      <c r="I112" s="79"/>
+      <c r="I112" s="73"/>
       <c r="J112" s="79"/>
       <c r="K112" s="79"/>
       <c r="L112" s="81"/>
     </row>
-    <row r="113" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A113" s="72"/>
       <c r="B113" s="66"/>
       <c r="C113" s="67"/>
@@ -8946,12 +9198,12 @@
       <c r="F113" s="88"/>
       <c r="G113" s="90"/>
       <c r="H113" s="76"/>
-      <c r="I113" s="79"/>
+      <c r="I113" s="73"/>
       <c r="J113" s="79"/>
       <c r="K113" s="79"/>
       <c r="L113" s="81"/>
     </row>
-    <row r="114" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A114" s="72"/>
       <c r="B114" s="66"/>
       <c r="C114" s="67"/>
@@ -8960,12 +9212,12 @@
       <c r="F114" s="88"/>
       <c r="G114" s="90"/>
       <c r="H114" s="76"/>
-      <c r="I114" s="79"/>
+      <c r="I114" s="73"/>
       <c r="J114" s="79"/>
       <c r="K114" s="79"/>
       <c r="L114" s="81"/>
     </row>
-    <row r="115" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A115" s="72"/>
       <c r="B115" s="66"/>
       <c r="C115" s="67"/>
@@ -8974,12 +9226,12 @@
       <c r="F115" s="88"/>
       <c r="G115" s="90"/>
       <c r="H115" s="76"/>
-      <c r="I115" s="79"/>
+      <c r="I115" s="73"/>
       <c r="J115" s="79"/>
       <c r="K115" s="79"/>
       <c r="L115" s="81"/>
     </row>
-    <row r="116" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A116" s="72"/>
       <c r="B116" s="66"/>
       <c r="C116" s="67"/>
@@ -8988,12 +9240,12 @@
       <c r="F116" s="88"/>
       <c r="G116" s="90"/>
       <c r="H116" s="76"/>
-      <c r="I116" s="79"/>
+      <c r="I116" s="73"/>
       <c r="J116" s="79"/>
       <c r="K116" s="79"/>
       <c r="L116" s="81"/>
     </row>
-    <row r="117" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A117" s="72"/>
       <c r="B117" s="66"/>
       <c r="C117" s="67"/>
@@ -9002,12 +9254,12 @@
       <c r="F117" s="88"/>
       <c r="G117" s="90"/>
       <c r="H117" s="76"/>
-      <c r="I117" s="79"/>
+      <c r="I117" s="73"/>
       <c r="J117" s="79"/>
       <c r="K117" s="79"/>
       <c r="L117" s="81"/>
     </row>
-    <row r="118" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A118" s="72"/>
       <c r="B118" s="66"/>
       <c r="C118" s="67"/>
@@ -9016,12 +9268,12 @@
       <c r="F118" s="88"/>
       <c r="G118" s="90"/>
       <c r="H118" s="76"/>
-      <c r="I118" s="79"/>
+      <c r="I118" s="73"/>
       <c r="J118" s="79"/>
       <c r="K118" s="79"/>
       <c r="L118" s="81"/>
     </row>
-    <row r="119" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A119" s="72"/>
       <c r="B119" s="66"/>
       <c r="C119" s="67"/>
@@ -9030,12 +9282,12 @@
       <c r="F119" s="88"/>
       <c r="G119" s="90"/>
       <c r="H119" s="76"/>
-      <c r="I119" s="79"/>
+      <c r="I119" s="73"/>
       <c r="J119" s="79"/>
       <c r="K119" s="79"/>
       <c r="L119" s="81"/>
     </row>
-    <row r="120" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A120" s="72"/>
       <c r="B120" s="66"/>
       <c r="C120" s="67"/>
@@ -9044,12 +9296,12 @@
       <c r="F120" s="88"/>
       <c r="G120" s="90"/>
       <c r="H120" s="76"/>
-      <c r="I120" s="79"/>
+      <c r="I120" s="73"/>
       <c r="J120" s="79"/>
       <c r="K120" s="79"/>
       <c r="L120" s="81"/>
     </row>
-    <row r="121" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A121" s="72"/>
       <c r="B121" s="66"/>
       <c r="C121" s="67"/>
@@ -9058,12 +9310,12 @@
       <c r="F121" s="88"/>
       <c r="G121" s="90"/>
       <c r="H121" s="76"/>
-      <c r="I121" s="79"/>
+      <c r="I121" s="73"/>
       <c r="J121" s="79"/>
       <c r="K121" s="79"/>
       <c r="L121" s="81"/>
     </row>
-    <row r="122" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A122" s="72"/>
       <c r="B122" s="66"/>
       <c r="C122" s="67"/>
@@ -9072,12 +9324,12 @@
       <c r="F122" s="88"/>
       <c r="G122" s="90"/>
       <c r="H122" s="76"/>
-      <c r="I122" s="79"/>
+      <c r="I122" s="73"/>
       <c r="J122" s="79"/>
       <c r="K122" s="79"/>
       <c r="L122" s="81"/>
     </row>
-    <row r="123" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A123" s="72"/>
       <c r="B123" s="66"/>
       <c r="C123" s="67"/>
@@ -9086,12 +9338,12 @@
       <c r="F123" s="88"/>
       <c r="G123" s="90"/>
       <c r="H123" s="76"/>
-      <c r="I123" s="79"/>
+      <c r="I123" s="73"/>
       <c r="J123" s="79"/>
       <c r="K123" s="79"/>
       <c r="L123" s="81"/>
     </row>
-    <row r="124" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A124" s="72"/>
       <c r="B124" s="66"/>
       <c r="C124" s="67"/>
@@ -9100,12 +9352,12 @@
       <c r="F124" s="88"/>
       <c r="G124" s="90"/>
       <c r="H124" s="76"/>
-      <c r="I124" s="79"/>
+      <c r="I124" s="73"/>
       <c r="J124" s="79"/>
       <c r="K124" s="79"/>
       <c r="L124" s="81"/>
     </row>
-    <row r="125" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A125" s="72"/>
       <c r="B125" s="66"/>
       <c r="C125" s="67"/>
@@ -9114,12 +9366,12 @@
       <c r="F125" s="74"/>
       <c r="G125" s="75"/>
       <c r="H125" s="76"/>
-      <c r="I125" s="79"/>
+      <c r="I125" s="73"/>
       <c r="J125" s="79"/>
       <c r="K125" s="79"/>
       <c r="L125" s="81"/>
     </row>
-    <row r="126" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A126" s="72"/>
       <c r="B126" s="66"/>
       <c r="C126" s="67"/>
@@ -9128,12 +9380,12 @@
       <c r="F126" s="74"/>
       <c r="G126" s="75"/>
       <c r="H126" s="76"/>
-      <c r="I126" s="79"/>
+      <c r="I126" s="73"/>
       <c r="J126" s="79"/>
       <c r="K126" s="79"/>
       <c r="L126" s="81"/>
     </row>
-    <row r="127" spans="1:12" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" s="83" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A127" s="72"/>
       <c r="B127" s="66"/>
       <c r="C127" s="67"/>
@@ -9142,12 +9394,12 @@
       <c r="F127" s="74"/>
       <c r="G127" s="75"/>
       <c r="H127" s="76"/>
-      <c r="I127" s="79"/>
+      <c r="I127" s="73"/>
       <c r="J127" s="79"/>
       <c r="K127" s="79"/>
       <c r="L127" s="81"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A128" s="72"/>
       <c r="B128" s="66"/>
       <c r="C128" s="74"/>
@@ -9156,12 +9408,12 @@
       <c r="F128" s="74"/>
       <c r="G128" s="75"/>
       <c r="H128" s="76"/>
-      <c r="I128" s="79"/>
+      <c r="I128" s="73"/>
       <c r="J128" s="79"/>
       <c r="K128" s="79"/>
       <c r="L128" s="81"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A129" s="72"/>
       <c r="B129" s="66"/>
       <c r="C129" s="74"/>
@@ -9170,12 +9422,12 @@
       <c r="F129" s="74"/>
       <c r="G129" s="75"/>
       <c r="H129" s="76"/>
-      <c r="I129" s="79"/>
+      <c r="I129" s="73"/>
       <c r="J129" s="79"/>
       <c r="K129" s="79"/>
       <c r="L129" s="81"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A130" s="72"/>
       <c r="B130" s="66"/>
       <c r="C130" s="74"/>
@@ -9184,12 +9436,12 @@
       <c r="F130" s="74"/>
       <c r="G130" s="75"/>
       <c r="H130" s="76"/>
-      <c r="I130" s="79"/>
+      <c r="I130" s="73"/>
       <c r="J130" s="79"/>
       <c r="K130" s="79"/>
       <c r="L130" s="81"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A131" s="72"/>
       <c r="B131" s="66"/>
       <c r="C131" s="74"/>
@@ -9198,12 +9450,12 @@
       <c r="F131" s="74"/>
       <c r="G131" s="75"/>
       <c r="H131" s="76"/>
-      <c r="I131" s="79"/>
+      <c r="I131" s="73"/>
       <c r="J131" s="79"/>
       <c r="K131" s="79"/>
       <c r="L131" s="81"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A132" s="72"/>
       <c r="B132" s="66"/>
       <c r="C132" s="74"/>
@@ -9212,12 +9464,12 @@
       <c r="F132" s="74"/>
       <c r="G132" s="75"/>
       <c r="H132" s="76"/>
-      <c r="I132" s="79"/>
+      <c r="I132" s="73"/>
       <c r="J132" s="79"/>
       <c r="K132" s="79"/>
       <c r="L132" s="81"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A133" s="72"/>
       <c r="B133" s="66"/>
       <c r="C133" s="74"/>
@@ -9226,12 +9478,12 @@
       <c r="F133" s="74"/>
       <c r="G133" s="91"/>
       <c r="H133" s="76"/>
-      <c r="I133" s="79"/>
+      <c r="I133" s="73"/>
       <c r="J133" s="79"/>
       <c r="K133" s="79"/>
       <c r="L133" s="81"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="72"/>
       <c r="B134" s="66"/>
       <c r="C134" s="74"/>
@@ -9240,12 +9492,12 @@
       <c r="F134" s="74"/>
       <c r="G134" s="91"/>
       <c r="H134" s="76"/>
-      <c r="I134" s="79"/>
+      <c r="I134" s="73"/>
       <c r="J134" s="79"/>
       <c r="K134" s="79"/>
       <c r="L134" s="81"/>
     </row>
-    <row r="135" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="72"/>
       <c r="B135" s="66"/>
       <c r="C135" s="74"/>
@@ -9254,12 +9506,12 @@
       <c r="F135" s="74"/>
       <c r="G135" s="91"/>
       <c r="H135" s="76"/>
-      <c r="I135" s="79"/>
+      <c r="I135" s="169"/>
       <c r="J135" s="79"/>
       <c r="K135" s="79"/>
       <c r="L135" s="81"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A136" s="72"/>
       <c r="B136" s="134" t="s">
         <v>266</v>
@@ -9270,12 +9522,12 @@
       <c r="F136" s="134"/>
       <c r="G136" s="136"/>
       <c r="H136" s="92"/>
-      <c r="I136" s="93"/>
+      <c r="I136" s="73"/>
       <c r="J136" s="93"/>
       <c r="K136" s="93"/>
       <c r="L136" s="94"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A137" s="72"/>
       <c r="B137" s="137" t="s">
         <v>267</v>
@@ -9286,12 +9538,12 @@
       <c r="F137" s="137"/>
       <c r="G137" s="139"/>
       <c r="H137" s="76"/>
-      <c r="I137" s="79"/>
+      <c r="I137" s="73"/>
       <c r="J137" s="79"/>
       <c r="K137" s="79"/>
       <c r="L137" s="81"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A138" s="72"/>
       <c r="B138" s="137" t="s">
         <v>268</v>
@@ -9302,12 +9554,12 @@
       <c r="F138" s="137"/>
       <c r="G138" s="139"/>
       <c r="H138" s="76"/>
-      <c r="I138" s="79"/>
+      <c r="I138" s="73"/>
       <c r="J138" s="79"/>
       <c r="K138" s="79"/>
       <c r="L138" s="81"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="72"/>
       <c r="B139" s="137" t="s">
         <v>269</v>
@@ -9318,12 +9570,12 @@
       <c r="F139" s="137"/>
       <c r="G139" s="139"/>
       <c r="H139" s="76"/>
-      <c r="I139" s="79"/>
+      <c r="I139" s="170"/>
       <c r="J139" s="79"/>
       <c r="K139" s="79"/>
       <c r="L139" s="81"/>
     </row>
-    <row r="140" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="72"/>
       <c r="B140" s="140" t="s">
         <v>270</v>
@@ -9334,7 +9586,6 @@
       <c r="F140" s="140"/>
       <c r="G140" s="142"/>
       <c r="H140" s="95"/>
-      <c r="I140" s="96"/>
       <c r="J140" s="96"/>
       <c r="K140" s="96"/>
       <c r="L140" s="97"/>
@@ -9362,7 +9613,51 @@
     <mergeCell ref="B139:G139"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1" display="http://43.139.95.106:88/zentao/bug-view-8566.html" xr:uid="{6EC63DB4-3829-4F11-88D0-D8C509D71606}"/>
+    <hyperlink ref="I11" r:id="rId2" display="http://43.139.95.106:88/zentao/bug-view-8578.html" xr:uid="{2A0B602B-8562-4C83-85D1-C865291F03BB}"/>
+    <hyperlink ref="I12" r:id="rId3" display="http://43.139.95.106:88/zentao/bug-view-8580.html" xr:uid="{91187314-60D3-4595-9E65-CFB4B40330F4}"/>
+    <hyperlink ref="I25" r:id="rId4" display="http://43.139.95.106:88/zentao/bug-view-8587.html" xr:uid="{5BC74AEE-A2C1-43D7-9723-E4D3511C37EE}"/>
+    <hyperlink ref="I29" r:id="rId5" display="http://43.139.95.106:88/zentao/bug-view-8594.html" xr:uid="{810CBDCF-ABD6-447B-AC6A-67090C1C73D5}"/>
+    <hyperlink ref="I30" r:id="rId6" display="http://43.139.95.106:88/zentao/bug-view-8594.html" xr:uid="{4869B01B-D612-4F8C-9F89-32A0D2663896}"/>
+    <hyperlink ref="I31" r:id="rId7" display="http://43.139.95.106:88/zentao/bug-view-8595.html" xr:uid="{485FB97E-9878-4907-B4C6-A127A004B167}"/>
+    <hyperlink ref="I33" r:id="rId8" display="http://43.139.95.106:88/zentao/bug-view-8597.html" xr:uid="{BB6778E0-70F6-4C2D-86DF-865C5890993D}"/>
+    <hyperlink ref="I34" r:id="rId9" display="http://43.139.95.106:88/zentao/bug-view-8602.html" xr:uid="{AF98A8F6-D786-4935-9E74-F8C70E0BD3B0}"/>
+    <hyperlink ref="I35" r:id="rId10" display="http://43.139.95.106:88/zentao/bug-view-8604.html" xr:uid="{1BCD7BBF-A704-47BD-BD97-86CE5E682213}"/>
+    <hyperlink ref="I39" r:id="rId11" display="http://43.139.95.106:88/zentao/bug-view-8605.html" xr:uid="{1879FEBD-FB0E-462D-A28F-458809E077BF}"/>
+    <hyperlink ref="I48" r:id="rId12" display="http://43.139.95.106:88/zentao/bug-view-8606.html" xr:uid="{DE1799CE-CE2C-4F43-984D-331C4D837A40}"/>
+    <hyperlink ref="I49" r:id="rId13" display="http://43.139.95.106:88/zentao/bug-view-8608.html" xr:uid="{0269B244-C210-467A-8723-3594F7F981E1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId16" name="Control 3">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>247650</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId16" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
 
@@ -9372,12 +9667,12 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="4"/>
+    <col min="1" max="1" width="10.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="88.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9390,20 +9685,32 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="166">
+        <v>8576</v>
+      </c>
+      <c r="B2" s="172" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="166">
+        <v>8577</v>
+      </c>
+      <c r="B3" s="172" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="166">
+        <v>8581</v>
+      </c>
+      <c r="B4" s="172" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="166"/>
+      <c r="B5" s="172"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -9522,6 +9829,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://43.139.95.106:88/zentao/bug-view-8576.html" xr:uid="{B493163C-010D-4C7C-80C8-862DB9810424}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://43.139.95.106:88/zentao/bug-view-8577.html" xr:uid="{37E81CDB-42CF-4FFC-83B3-F54F068322A8}"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://43.139.95.106:88/zentao/bug-view-8581.html" xr:uid="{1863205F-6C05-4C9C-897D-CECCD52DDE39}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
